--- a/medicine/Enfance/Les_P'tites_Poules/Les_P'tites_Poules.xlsx
+++ b/medicine/Enfance/Les_P'tites_Poules/Les_P'tites_Poules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_P%27tites_Poules</t>
+          <t>Les_P'tites_Poules</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les P'tites Poules est une série de livres pour les enfants créée par Christian Jolibois et Christian Heinrich en 2001 et publiée aux éditions Pocket Jeunesse.
 Cette série raconte  avec humour et second degré les aventures d'un poulailler au Moyen-âge.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_P%27tites_Poules</t>
+          <t>Les_P'tites_Poules</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carméla, une poule
 Pitikok, un coq originaire d'Amérique
@@ -553,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_P%27tites_Poules</t>
+          <t>Les_P'tites_Poules</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +585,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Petite Poule qui voulait voir la mer, 2001  (ISBN 978-2266215121)
 Un poulailler dans les étoiles, 2003  (ISBN 978-2266189736)
@@ -603,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_P%27tites_Poules</t>
+          <t>Les_P'tites_Poules</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +637,9 @@
           <t>Adaptation télévisuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les P'tites Poules, série télévisée d'animation 3D diffusée sur France 5 dans Zouzous du 31 mai 2012 au 31 août 2012.
 </t>
